--- a/biology/Médecine/Anuscopie/Anuscopie.xlsx
+++ b/biology/Médecine/Anuscopie/Anuscopie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'anuscopie est un examen médical faisant partie de l'examen proctologique, qui comprend également le toucher rectal et la rectoscopie.
 Cet examen est réalisé à l'aide d'un anuscope qui est une sorte de spéculum que l'on insère dans l'anus. C'est un appareil court muni d'un mandrin pour l'introduction qui est ensuite retiré lors de l'inspection. Il permet l'examen visuel direct de la muqueuse du canal anal et du bas rectum.
